--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A831E5AA-69B7-40C7-823A-97DD2B80764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC354FE1-BC9D-4D53-B56F-22BA36320792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{2E68171C-2FDB-49CD-8535-BEEDF47325F1}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{ADCBB9FA-9BCB-4FCE-845C-15B9978B4EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
     <t xml:space="preserve"> DSN</t>
   </si>
   <si>
-    <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\Student\MecE265_Ass01_dnobes.SLDPRT</t>
+    <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\Student\MecE265_Ass01_dnobes.SLDPRT</t>
   </si>
   <si>
     <t>dnobes</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F341C-2048-4994-979A-448368B24457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7700E76-67D3-46BA-8286-32AF392A3DC0}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC354FE1-BC9D-4D53-B56F-22BA36320792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C5CDBE-C470-4259-9F7C-4004FD1B3DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{ADCBB9FA-9BCB-4FCE-845C-15B9978B4EC0}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{45F31901-C7FF-410C-B970-0144EA2CE215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7700E76-67D3-46BA-8286-32AF392A3DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70DBF3-F4D0-412C-AA61-38C86EBCE9C3}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C5CDBE-C470-4259-9F7C-4004FD1B3DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E950F0-6BCE-4AAF-8A20-BF764DCE06C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{45F31901-C7FF-410C-B970-0144EA2CE215}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{841028F2-C0E2-4622-9A4F-709236930B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70DBF3-F4D0-412C-AA61-38C86EBCE9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD88EFA6-1964-43ED-B26D-DBB94A5F8D50}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E950F0-6BCE-4AAF-8A20-BF764DCE06C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BA31A3-9EFA-4E84-936E-FA553224C111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{841028F2-C0E2-4622-9A4F-709236930B36}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{AF943A03-EA60-4AE1-B340-B50C47D057F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD88EFA6-1964-43ED-B26D-DBB94A5F8D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E88E0F-C5E9-4658-93FF-D35672269536}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BA31A3-9EFA-4E84-936E-FA553224C111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C264A549-593D-4D40-96DE-E708643AFC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{AF943A03-EA60-4AE1-B340-B50C47D057F2}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{021A9159-B1BC-4BB0-8A79-EC1A248E8B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E88E0F-C5E9-4658-93FF-D35672269536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF363ED5-4B8D-48CD-80A1-8B4215E6F122}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6522,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8354,7 +8354,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9947,7 +9947,7 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>1</v>
